--- a/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H2">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>175.5739187277081</v>
+        <v>238.4186252357446</v>
       </c>
       <c r="R2">
-        <v>175.5739187277081</v>
+        <v>2145.767627121701</v>
       </c>
       <c r="S2">
-        <v>0.0001131965848336153</v>
+        <v>0.0001338638603813287</v>
       </c>
       <c r="T2">
-        <v>0.0001131965848336153</v>
+        <v>0.0001338638603813288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H3">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>6246.147691375084</v>
+        <v>7136.120591897022</v>
       </c>
       <c r="R3">
-        <v>6246.147691375084</v>
+        <v>64225.0853270732</v>
       </c>
       <c r="S3">
-        <v>0.004027036544798885</v>
+        <v>0.004006686346897073</v>
       </c>
       <c r="T3">
-        <v>0.004027036544798885</v>
+        <v>0.004006686346897074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H4">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>2273.284078248557</v>
+        <v>3047.736780765324</v>
       </c>
       <c r="R4">
-        <v>2273.284078248557</v>
+        <v>27429.63102688792</v>
       </c>
       <c r="S4">
-        <v>0.001465639064612161</v>
+        <v>0.001711199410264209</v>
       </c>
       <c r="T4">
-        <v>0.001465639064612161</v>
+        <v>0.001711199410264209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H5">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I5">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J5">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>720.1510549853331</v>
+        <v>979.8822999253607</v>
       </c>
       <c r="R5">
-        <v>720.1510549853331</v>
+        <v>8818.940699328248</v>
       </c>
       <c r="S5">
-        <v>0.0004642981177351826</v>
+        <v>0.0005501702195356764</v>
       </c>
       <c r="T5">
-        <v>0.0004642981177351826</v>
+        <v>0.0005501702195356766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H6">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>293.0240280506847</v>
+        <v>370.169654815642</v>
       </c>
       <c r="R6">
-        <v>293.0240280506847</v>
+        <v>3331.526893340778</v>
       </c>
       <c r="S6">
-        <v>0.0001889193992472664</v>
+        <v>0.0002078375334169014</v>
       </c>
       <c r="T6">
-        <v>0.0001889193992472664</v>
+        <v>0.0002078375334169014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H7">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>10424.50592655918</v>
+        <v>11079.56768735399</v>
       </c>
       <c r="R7">
-        <v>10424.50592655918</v>
+        <v>99716.10918618586</v>
       </c>
       <c r="S7">
-        <v>0.006720921182458391</v>
+        <v>0.006220796301123354</v>
       </c>
       <c r="T7">
-        <v>0.006720921182458391</v>
+        <v>0.006220796301123354</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H8">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J8">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>3793.996638788673</v>
+        <v>4731.927595796299</v>
       </c>
       <c r="R8">
-        <v>3793.996638788673</v>
+        <v>42587.34836216669</v>
       </c>
       <c r="S8">
-        <v>0.002446077785887666</v>
+        <v>0.002656814644375634</v>
       </c>
       <c r="T8">
-        <v>0.002446077785887666</v>
+        <v>0.002656814644375634</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H9">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J9">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>1201.895842309124</v>
+        <v>1521.368946594141</v>
       </c>
       <c r="R9">
-        <v>1201.895842309124</v>
+        <v>13692.32051934727</v>
       </c>
       <c r="S9">
-        <v>0.0007748901753802659</v>
+        <v>0.0008541963533847038</v>
       </c>
       <c r="T9">
-        <v>0.0007748901753802659</v>
+        <v>0.0008541963533847037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H10">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>28261.85732490114</v>
+        <v>36088.16674553933</v>
       </c>
       <c r="R10">
-        <v>28261.85732490114</v>
+        <v>324793.5007098539</v>
       </c>
       <c r="S10">
-        <v>0.01822107607676715</v>
+        <v>0.0202622647868482</v>
       </c>
       <c r="T10">
-        <v>0.01822107607676715</v>
+        <v>0.02026226478684821</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H11">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I11">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J11">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>1005432.561755795</v>
+        <v>1080156.844214731</v>
       </c>
       <c r="R11">
-        <v>1005432.561755795</v>
+        <v>9721411.597932577</v>
       </c>
       <c r="S11">
-        <v>0.6482257336169364</v>
+        <v>0.6064709283552203</v>
       </c>
       <c r="T11">
-        <v>0.6482257336169364</v>
+        <v>0.6064709283552203</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H12">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I12">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J12">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>365926.959675993</v>
+        <v>461319.8026455297</v>
       </c>
       <c r="R12">
-        <v>365926.959675993</v>
+        <v>4151878.223809768</v>
       </c>
       <c r="S12">
-        <v>0.2359216131532042</v>
+        <v>0.2590152073539636</v>
       </c>
       <c r="T12">
-        <v>0.2359216131532042</v>
+        <v>0.2590152073539636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H13">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I13">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J13">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>115921.5817238609</v>
+        <v>148319.6029494065</v>
       </c>
       <c r="R13">
-        <v>115921.5817238609</v>
+        <v>1334876.426544659</v>
       </c>
       <c r="S13">
-        <v>0.07473733715542485</v>
+        <v>0.08327635729549869</v>
       </c>
       <c r="T13">
-        <v>0.07473733715542485</v>
+        <v>0.08327635729549869</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H14">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I14">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J14">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>193.5962300060835</v>
+        <v>544.9835939534972</v>
       </c>
       <c r="R14">
-        <v>193.5962300060835</v>
+        <v>4904.852345581476</v>
       </c>
       <c r="S14">
-        <v>0.0001248159876600927</v>
+        <v>0.0003059895495117897</v>
       </c>
       <c r="T14">
-        <v>0.0001248159876600927</v>
+        <v>0.0003059895495117898</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H15">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I15">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J15">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>6887.302247817201</v>
+        <v>16311.93302625643</v>
       </c>
       <c r="R15">
-        <v>6887.302247817201</v>
+        <v>146807.3972363079</v>
       </c>
       <c r="S15">
-        <v>0.004440403784453173</v>
+        <v>0.009158589531406313</v>
       </c>
       <c r="T15">
-        <v>0.004440403784453173</v>
+        <v>0.009158589531406316</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H16">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I16">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J16">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>2506.632138024503</v>
+        <v>6966.597272186307</v>
       </c>
       <c r="R16">
-        <v>2506.632138024503</v>
+        <v>62699.37544967677</v>
       </c>
       <c r="S16">
-        <v>0.001616083980551825</v>
+        <v>0.003911504831700029</v>
       </c>
       <c r="T16">
-        <v>0.001616083980551825</v>
+        <v>0.003911504831700031</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H17">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I17">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J17">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>794.0731191190414</v>
+        <v>2239.840855288513</v>
       </c>
       <c r="R17">
-        <v>794.0731191190414</v>
+        <v>20158.56769759662</v>
       </c>
       <c r="S17">
-        <v>0.0005119573900486548</v>
+        <v>0.001257593626472205</v>
       </c>
       <c r="T17">
-        <v>0.0005119573900486548</v>
+        <v>0.001257593626472205</v>
       </c>
     </row>
   </sheetData>
